--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il17b-Il17rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il17b-Il17rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Il17b</t>
+  </si>
+  <si>
+    <t>Il17rb</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il17b</t>
-  </si>
-  <si>
-    <t>Il17rb</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2310896666666666</v>
+        <v>0.088644</v>
       </c>
       <c r="H2">
-        <v>0.6932689999999999</v>
+        <v>0.177288</v>
       </c>
       <c r="I2">
-        <v>0.7188492505819589</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7931840102147173</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.734504666666667</v>
+        <v>1.313664</v>
       </c>
       <c r="N2">
-        <v>5.203514</v>
+        <v>3.940992</v>
       </c>
       <c r="O2">
-        <v>0.189295031874582</v>
+        <v>0.162843056287327</v>
       </c>
       <c r="P2">
-        <v>0.202666963087643</v>
+        <v>0.1710742652212996</v>
       </c>
       <c r="Q2">
-        <v>0.4008261052517778</v>
+        <v>0.116448431616</v>
       </c>
       <c r="R2">
-        <v>3.607434947266</v>
+        <v>0.6986905896960001</v>
       </c>
       <c r="S2">
-        <v>0.1360745918019313</v>
+        <v>0.162843056287327</v>
       </c>
       <c r="T2">
-        <v>0.1607521945198948</v>
+        <v>0.1710742652212996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,19 +599,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2310896666666666</v>
+        <v>0.088644</v>
       </c>
       <c r="H3">
-        <v>0.6932689999999999</v>
+        <v>0.177288</v>
       </c>
       <c r="I3">
-        <v>0.7188492505819589</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7931840102147173</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.484548999999999</v>
       </c>
       <c r="O3">
-        <v>0.2358969169002502</v>
+        <v>0.2679436491636953</v>
       </c>
       <c r="P3">
-        <v>0.2525608373155165</v>
+        <v>0.281487365482222</v>
       </c>
       <c r="Q3">
-        <v>0.4995040889645554</v>
+        <v>0.191605453852</v>
       </c>
       <c r="R3">
-        <v>4.495536800680999</v>
+        <v>1.149632723112</v>
       </c>
       <c r="S3">
-        <v>0.1695743219283395</v>
+        <v>0.2679436491636953</v>
       </c>
       <c r="T3">
-        <v>0.2003272177651082</v>
+        <v>0.281487365482222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,19 +661,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.2310896666666666</v>
+        <v>0.088644</v>
       </c>
       <c r="H4">
-        <v>0.6932689999999999</v>
+        <v>0.177288</v>
       </c>
       <c r="I4">
-        <v>0.7188492505819589</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7931840102147173</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.779132333333333</v>
+        <v>1.655213333333333</v>
       </c>
       <c r="N4">
-        <v>5.337397</v>
+        <v>4.96564</v>
       </c>
       <c r="O4">
-        <v>0.194165468804792</v>
+        <v>0.2051818410244432</v>
       </c>
       <c r="P4">
-        <v>0.2078814510315715</v>
+        <v>0.2155531435622032</v>
       </c>
       <c r="Q4">
-        <v>0.4111390978658888</v>
+        <v>0.14672473072</v>
       </c>
       <c r="R4">
-        <v>3.700251880793</v>
+        <v>0.8803483843200001</v>
       </c>
       <c r="S4">
-        <v>0.1395757017392194</v>
+        <v>0.2051818410244432</v>
       </c>
       <c r="T4">
-        <v>0.1648882429784763</v>
+        <v>0.2155531435622032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2310896666666666</v>
+        <v>0.088644</v>
       </c>
       <c r="H5">
-        <v>0.6932689999999999</v>
+        <v>0.177288</v>
       </c>
       <c r="I5">
-        <v>0.7188492505819589</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.7931840102147173</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8137135</v>
+        <v>1.164435</v>
       </c>
       <c r="N5">
-        <v>3.627427</v>
+        <v>2.32887</v>
       </c>
       <c r="O5">
-        <v>0.19793948173899</v>
+        <v>0.1443444855365859</v>
       </c>
       <c r="P5">
-        <v>0.1412813752229973</v>
+        <v>0.10109376625122</v>
       </c>
       <c r="Q5">
-        <v>0.4191304481438333</v>
+        <v>0.10322017614</v>
       </c>
       <c r="R5">
-        <v>2.514782688863</v>
+        <v>0.41288070456</v>
       </c>
       <c r="S5">
-        <v>0.1422886481086543</v>
+        <v>0.1443444855365859</v>
       </c>
       <c r="T5">
-        <v>0.1120621277680272</v>
+        <v>0.10109376625122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,19 +785,19 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2310896666666666</v>
+        <v>0.088644</v>
       </c>
       <c r="H6">
-        <v>0.6932689999999999</v>
+        <v>0.177288</v>
       </c>
       <c r="I6">
-        <v>0.7188492505819589</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.7931840102147173</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.674103</v>
+        <v>1.772227</v>
       </c>
       <c r="N6">
-        <v>5.022309</v>
+        <v>5.316681</v>
       </c>
       <c r="O6">
-        <v>0.1827031006813857</v>
+        <v>0.2196869679879487</v>
       </c>
       <c r="P6">
-        <v>0.1956093733422717</v>
+        <v>0.2307914594830552</v>
       </c>
       <c r="Q6">
-        <v>0.3868679042356666</v>
+        <v>0.157097290188</v>
       </c>
       <c r="R6">
-        <v>3.481811138121</v>
+        <v>0.942583741128</v>
       </c>
       <c r="S6">
-        <v>0.1313359870038143</v>
+        <v>0.2196869679879487</v>
       </c>
       <c r="T6">
-        <v>0.1551542271832108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.090382</v>
-      </c>
-      <c r="H7">
-        <v>0.180764</v>
-      </c>
-      <c r="I7">
-        <v>0.281150749418041</v>
-      </c>
-      <c r="J7">
-        <v>0.2068159897852827</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.734504666666667</v>
-      </c>
-      <c r="N7">
-        <v>5.203514</v>
-      </c>
-      <c r="O7">
-        <v>0.189295031874582</v>
-      </c>
-      <c r="P7">
-        <v>0.202666963087643</v>
-      </c>
-      <c r="Q7">
-        <v>0.1567680007826667</v>
-      </c>
-      <c r="R7">
-        <v>0.940608004696</v>
-      </c>
-      <c r="S7">
-        <v>0.0532204400726507</v>
-      </c>
-      <c r="T7">
-        <v>0.04191476856774826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.090382</v>
-      </c>
-      <c r="H8">
-        <v>0.180764</v>
-      </c>
-      <c r="I8">
-        <v>0.281150749418041</v>
-      </c>
-      <c r="J8">
-        <v>0.2068159897852827</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.161516333333333</v>
-      </c>
-      <c r="N8">
-        <v>6.484548999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.2358969169002502</v>
-      </c>
-      <c r="P8">
-        <v>0.2525608373155165</v>
-      </c>
-      <c r="Q8">
-        <v>0.1953621692393333</v>
-      </c>
-      <c r="R8">
-        <v>1.172173015436</v>
-      </c>
-      <c r="S8">
-        <v>0.0663225949719107</v>
-      </c>
-      <c r="T8">
-        <v>0.05223361955040831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.090382</v>
-      </c>
-      <c r="H9">
-        <v>0.180764</v>
-      </c>
-      <c r="I9">
-        <v>0.281150749418041</v>
-      </c>
-      <c r="J9">
-        <v>0.2068159897852827</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.779132333333333</v>
-      </c>
-      <c r="N9">
-        <v>5.337397</v>
-      </c>
-      <c r="O9">
-        <v>0.194165468804792</v>
-      </c>
-      <c r="P9">
-        <v>0.2078814510315715</v>
-      </c>
-      <c r="Q9">
-        <v>0.1608015385513333</v>
-      </c>
-      <c r="R9">
-        <v>0.9648092313080001</v>
-      </c>
-      <c r="S9">
-        <v>0.05458976706557254</v>
-      </c>
-      <c r="T9">
-        <v>0.04299320805309524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.090382</v>
-      </c>
-      <c r="H10">
-        <v>0.180764</v>
-      </c>
-      <c r="I10">
-        <v>0.281150749418041</v>
-      </c>
-      <c r="J10">
-        <v>0.2068159897852827</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.8137135</v>
-      </c>
-      <c r="N10">
-        <v>3.627427</v>
-      </c>
-      <c r="O10">
-        <v>0.19793948173899</v>
-      </c>
-      <c r="P10">
-        <v>0.1412813752229973</v>
-      </c>
-      <c r="Q10">
-        <v>0.163927053557</v>
-      </c>
-      <c r="R10">
-        <v>0.6557082142280001</v>
-      </c>
-      <c r="S10">
-        <v>0.0556508336303357</v>
-      </c>
-      <c r="T10">
-        <v>0.02921924745497011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.090382</v>
-      </c>
-      <c r="H11">
-        <v>0.180764</v>
-      </c>
-      <c r="I11">
-        <v>0.281150749418041</v>
-      </c>
-      <c r="J11">
-        <v>0.2068159897852827</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.674103</v>
-      </c>
-      <c r="N11">
-        <v>5.022309</v>
-      </c>
-      <c r="O11">
-        <v>0.1827031006813857</v>
-      </c>
-      <c r="P11">
-        <v>0.1956093733422717</v>
-      </c>
-      <c r="Q11">
-        <v>0.151308777346</v>
-      </c>
-      <c r="R11">
-        <v>0.9078526640760001</v>
-      </c>
-      <c r="S11">
-        <v>0.05136711367757139</v>
-      </c>
-      <c r="T11">
-        <v>0.04045514615906081</v>
+        <v>0.2307914594830552</v>
       </c>
     </row>
   </sheetData>
